--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02280140166629086</v>
+        <v>-0.01636740676293108</v>
       </c>
       <c r="C2">
-        <v>0.3689396310052895</v>
+        <v>0.7208754989987691</v>
       </c>
       <c r="D2">
-        <v>0.2436046847368534</v>
+        <v>0.8155649038874973</v>
       </c>
       <c r="E2">
-        <v>0.4935632530252362</v>
+        <v>0.9030863213931973</v>
       </c>
       <c r="F2">
-        <v>0.5116479357064463</v>
+        <v>0.9370230342118662</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07156190161791255</v>
+        <v>0.1136094414023552</v>
       </c>
       <c r="C3">
-        <v>0.3080342924044931</v>
+        <v>0.6727610774151302</v>
       </c>
       <c r="D3">
-        <v>0.1590639408445323</v>
+        <v>0.6903787083050854</v>
       </c>
       <c r="E3">
-        <v>0.3988282096900021</v>
+        <v>0.8308903106337716</v>
       </c>
       <c r="F3">
-        <v>0.4083765476511523</v>
+        <v>0.8566957278151761</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09059581505071879</v>
+        <v>0.1783636749128446</v>
       </c>
       <c r="C4">
-        <v>0.3641612123835479</v>
+        <v>0.6586562652618152</v>
       </c>
       <c r="D4">
-        <v>0.1899905339073007</v>
+        <v>0.5234084977275197</v>
       </c>
       <c r="E4">
-        <v>0.4358790358658015</v>
+        <v>0.7234697628287721</v>
       </c>
       <c r="F4">
-        <v>0.4453185975365542</v>
+        <v>0.7323150567884177</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.01921482007686953</v>
+        <v>0.240625490472168</v>
       </c>
       <c r="C5">
-        <v>0.2811104087999606</v>
+        <v>0.716344199269209</v>
       </c>
       <c r="D5">
-        <v>0.1122892737625923</v>
+        <v>0.6084117250097457</v>
       </c>
       <c r="E5">
-        <v>0.3350959172574209</v>
+        <v>0.7800075159956766</v>
       </c>
       <c r="F5">
-        <v>0.3508732974981231</v>
+        <v>0.7781787764898576</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02688335726451527</v>
+        <v>0.2137183226789437</v>
       </c>
       <c r="C6">
-        <v>0.2054416733119005</v>
+        <v>0.6340062147284611</v>
       </c>
       <c r="D6">
-        <v>0.06485303287677503</v>
+        <v>0.4822391445073304</v>
       </c>
       <c r="E6">
-        <v>0.2546625863309627</v>
+        <v>0.6944344061949482</v>
       </c>
       <c r="F6">
-        <v>0.2669380243905221</v>
+        <v>0.6964701661143612</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.03754285365620808</v>
+        <v>0.1237973885243304</v>
       </c>
       <c r="C7">
-        <v>0.1729791086514109</v>
+        <v>0.583296279823095</v>
       </c>
       <c r="D7">
-        <v>0.07141524049273328</v>
+        <v>0.3672486758207861</v>
       </c>
       <c r="E7">
-        <v>0.2672363008513875</v>
+        <v>0.6060104585077605</v>
       </c>
       <c r="F7">
-        <v>0.2857855904999914</v>
+        <v>0.6292163719399392</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05858502015002735</v>
+        <v>0.3031634011949809</v>
       </c>
       <c r="C8">
-        <v>0.2187655766031571</v>
+        <v>0.5793847622031741</v>
       </c>
       <c r="D8">
-        <v>0.09001131228173291</v>
+        <v>0.4383022118985093</v>
       </c>
       <c r="E8">
-        <v>0.3000188532104823</v>
+        <v>0.6620439652307913</v>
       </c>
       <c r="F8">
-        <v>0.3397628735765652</v>
+        <v>0.6447270716274294</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3375522271518718</v>
+        <v>0.08312183816600854</v>
       </c>
       <c r="C9">
-        <v>0.3375522271518718</v>
+        <v>0.1419465487444733</v>
       </c>
       <c r="D9">
-        <v>0.1139415060551889</v>
+        <v>0.02590123319020616</v>
       </c>
       <c r="E9">
-        <v>0.3375522271518718</v>
+        <v>0.1609386006842552</v>
+      </c>
+      <c r="F9">
+        <v>0.1687838553155042</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.7701202119308102</v>
+      </c>
+      <c r="C10">
+        <v>0.7701202119308102</v>
+      </c>
+      <c r="D10">
+        <v>0.5930851408243559</v>
+      </c>
+      <c r="E10">
+        <v>0.7701202119308102</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01636740676293108</v>
+        <v>0.2033919902778603</v>
       </c>
       <c r="C2">
-        <v>0.7208754989987691</v>
+        <v>0.4364632531330045</v>
       </c>
       <c r="D2">
-        <v>0.8155649038874973</v>
+        <v>0.3742668131629021</v>
       </c>
       <c r="E2">
-        <v>0.9030863213931973</v>
+        <v>0.6117734982515196</v>
       </c>
       <c r="F2">
-        <v>0.9370230342118662</v>
+        <v>0.5987537801616326</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1136094414023552</v>
+        <v>0.2628942463139419</v>
       </c>
       <c r="C3">
-        <v>0.6727610774151302</v>
+        <v>0.4333144524565598</v>
       </c>
       <c r="D3">
-        <v>0.6903787083050854</v>
+        <v>0.2926323150708423</v>
       </c>
       <c r="E3">
-        <v>0.8308903106337716</v>
+        <v>0.5409550028152456</v>
       </c>
       <c r="F3">
-        <v>0.8566957278151761</v>
+        <v>0.4920828262122367</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1783636749128446</v>
+        <v>0.2853914118626144</v>
       </c>
       <c r="C4">
-        <v>0.6586562652618152</v>
+        <v>0.4746291375408727</v>
       </c>
       <c r="D4">
-        <v>0.5234084977275197</v>
+        <v>0.3229524026090269</v>
       </c>
       <c r="E4">
-        <v>0.7234697628287721</v>
+        <v>0.5682890132749593</v>
       </c>
       <c r="F4">
-        <v>0.7323150567884177</v>
+        <v>0.5132826384015559</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.240625490472168</v>
+        <v>0.2197630776494257</v>
       </c>
       <c r="C5">
-        <v>0.716344199269209</v>
+        <v>0.4033531803712247</v>
       </c>
       <c r="D5">
-        <v>0.6084117250097457</v>
+        <v>0.234430775428361</v>
       </c>
       <c r="E5">
-        <v>0.7800075159956766</v>
+        <v>0.4841805194639299</v>
       </c>
       <c r="F5">
-        <v>0.7781787764898576</v>
+        <v>0.4524913939993277</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2137183226789437</v>
+        <v>0.1926414270218137</v>
       </c>
       <c r="C6">
-        <v>0.6340062147284611</v>
+        <v>0.3605436531697729</v>
       </c>
       <c r="D6">
-        <v>0.4822391445073304</v>
+        <v>0.1752150039837381</v>
       </c>
       <c r="E6">
-        <v>0.6944344061949482</v>
+        <v>0.4185869132972722</v>
       </c>
       <c r="F6">
-        <v>0.6964701661143612</v>
+        <v>0.3917259310889259</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1237973885243304</v>
+        <v>0.2387356972361521</v>
       </c>
       <c r="C7">
-        <v>0.583296279823095</v>
+        <v>0.2818843305516119</v>
       </c>
       <c r="D7">
-        <v>0.3672486758207861</v>
+        <v>0.1725877670096401</v>
       </c>
       <c r="E7">
-        <v>0.6060104585077605</v>
+        <v>0.4154368387729236</v>
       </c>
       <c r="F7">
-        <v>0.6292163719399392</v>
+        <v>0.3606135925185842</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3031634011949809</v>
+        <v>0.3398310944915218</v>
       </c>
       <c r="C8">
-        <v>0.5793847622031741</v>
+        <v>0.3398310944915218</v>
       </c>
       <c r="D8">
-        <v>0.4383022118985093</v>
+        <v>0.2116720379002942</v>
       </c>
       <c r="E8">
-        <v>0.6620439652307913</v>
+        <v>0.4600782954023089</v>
       </c>
       <c r="F8">
-        <v>0.6447270716274294</v>
+        <v>0.3397414283545448</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.08312183816600854</v>
+        <v>0.4537447083867415</v>
       </c>
       <c r="C9">
-        <v>0.1419465487444733</v>
+        <v>0.4537447083867415</v>
       </c>
       <c r="D9">
-        <v>0.02590123319020616</v>
+        <v>0.2538588652253824</v>
       </c>
       <c r="E9">
-        <v>0.1609386006842552</v>
+        <v>0.5038440882112069</v>
       </c>
       <c r="F9">
-        <v>0.1687838553155042</v>
+        <v>0.2682571662688996</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.7701202119308102</v>
+        <v>0.08161590864515353</v>
       </c>
       <c r="C10">
-        <v>0.7701202119308102</v>
+        <v>0.08161590864515353</v>
       </c>
       <c r="D10">
-        <v>0.5930851408243559</v>
+        <v>0.006661156543974047</v>
       </c>
       <c r="E10">
-        <v>0.7701202119308102</v>
+        <v>0.08161590864515353</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2033919902778603</v>
+        <v>0.01778118981931784</v>
       </c>
       <c r="C2">
-        <v>0.4364632531330045</v>
+        <v>0.8812756614903005</v>
       </c>
       <c r="D2">
-        <v>0.3742668131629021</v>
+        <v>2.316443170155194</v>
       </c>
       <c r="E2">
-        <v>0.6117734982515196</v>
+        <v>1.521986586719868</v>
       </c>
       <c r="F2">
-        <v>0.5987537801616326</v>
+        <v>1.537026199982511</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2628942463139419</v>
+        <v>0.2232283752735154</v>
       </c>
       <c r="C3">
-        <v>0.4333144524565598</v>
+        <v>0.8890070218121189</v>
       </c>
       <c r="D3">
-        <v>0.2926323150708423</v>
+        <v>2.324356938520629</v>
       </c>
       <c r="E3">
-        <v>0.5409550028152456</v>
+        <v>1.524584185448816</v>
       </c>
       <c r="F3">
-        <v>0.4920828262122367</v>
+        <v>1.5234647779273</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2853914118626144</v>
+        <v>0.07282520553819657</v>
       </c>
       <c r="C4">
-        <v>0.4746291375408727</v>
+        <v>0.8920146246384424</v>
       </c>
       <c r="D4">
-        <v>0.3229524026090269</v>
+        <v>2.369955897058822</v>
       </c>
       <c r="E4">
-        <v>0.5682890132749593</v>
+        <v>1.539466107798032</v>
       </c>
       <c r="F4">
-        <v>0.5132826384015559</v>
+        <v>1.553678209244919</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2197630776494257</v>
+        <v>0.2280708590847791</v>
       </c>
       <c r="C5">
-        <v>0.4033531803712247</v>
+        <v>0.9180197143133344</v>
       </c>
       <c r="D5">
-        <v>0.234430775428361</v>
+        <v>2.436291467276783</v>
       </c>
       <c r="E5">
-        <v>0.4841805194639299</v>
+        <v>1.5608624113857</v>
       </c>
       <c r="F5">
-        <v>0.4524913939993277</v>
+        <v>1.560450066177918</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1926414270218137</v>
+        <v>0.1059889376669026</v>
       </c>
       <c r="C6">
-        <v>0.3605436531697729</v>
+        <v>0.8775097619739644</v>
       </c>
       <c r="D6">
-        <v>0.1752150039837381</v>
+        <v>2.394266195833348</v>
       </c>
       <c r="E6">
-        <v>0.4185869132972722</v>
+        <v>1.547341654526675</v>
       </c>
       <c r="F6">
-        <v>0.3917259310889259</v>
+        <v>1.560396615019112</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2387356972361521</v>
+        <v>0.2424232887606824</v>
       </c>
       <c r="C7">
-        <v>0.2818843305516119</v>
+        <v>0.8995544753595199</v>
       </c>
       <c r="D7">
-        <v>0.1725877670096401</v>
+        <v>2.464361956921573</v>
       </c>
       <c r="E7">
-        <v>0.4154368387729236</v>
+        <v>1.569828639349395</v>
       </c>
       <c r="F7">
-        <v>0.3606135925185842</v>
+        <v>1.56813600370666</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3398310944915218</v>
+        <v>0.08228634011495191</v>
       </c>
       <c r="C8">
-        <v>0.3398310944915218</v>
+        <v>0.8063847497337052</v>
       </c>
       <c r="D8">
-        <v>0.2116720379002942</v>
+        <v>2.322743373247686</v>
       </c>
       <c r="E8">
-        <v>0.4600782954023089</v>
+        <v>1.524054911493574</v>
       </c>
       <c r="F8">
-        <v>0.3397414283545448</v>
+        <v>1.539028286382188</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4537447083867415</v>
+        <v>0.2065927448523342</v>
       </c>
       <c r="C9">
-        <v>0.4537447083867415</v>
+        <v>0.8408213022771569</v>
       </c>
       <c r="D9">
-        <v>0.2538588652253824</v>
+        <v>2.429435650446118</v>
       </c>
       <c r="E9">
-        <v>0.5038440882112069</v>
+        <v>1.558664701097102</v>
       </c>
       <c r="F9">
-        <v>0.2682571662688996</v>
+        <v>1.562773502624323</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08161590864515353</v>
+        <v>0.1150341483697026</v>
       </c>
       <c r="C10">
-        <v>0.08161590864515353</v>
+        <v>0.7847972820185366</v>
       </c>
       <c r="D10">
-        <v>0.006661156543974047</v>
+        <v>2.399366321466991</v>
       </c>
       <c r="E10">
-        <v>0.08161590864515353</v>
+        <v>1.548988806114167</v>
+      </c>
+      <c r="F10">
+        <v>1.562992696000677</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.124196579601926</v>
+      </c>
+      <c r="C11">
+        <v>0.8001464258099134</v>
+      </c>
+      <c r="D11">
+        <v>2.371409906460054</v>
+      </c>
+      <c r="E11">
+        <v>1.539938280081398</v>
+      </c>
+      <c r="F11">
+        <v>1.553527652694611</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01778118981931784</v>
+        <v>0.2609752687857849</v>
       </c>
       <c r="C2">
-        <v>0.8812756614903005</v>
+        <v>0.9909744767902922</v>
       </c>
       <c r="D2">
-        <v>2.316443170155194</v>
+        <v>2.68705854512723</v>
       </c>
       <c r="E2">
-        <v>1.521986586719868</v>
+        <v>1.639224983071949</v>
       </c>
       <c r="F2">
-        <v>1.537026199982511</v>
+        <v>1.637933849261315</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2232283752735154</v>
+        <v>0.009041043032269717</v>
       </c>
       <c r="C3">
-        <v>0.8890070218121189</v>
+        <v>1.032344038245651</v>
       </c>
       <c r="D3">
-        <v>2.324356938520629</v>
+        <v>2.857553663655543</v>
       </c>
       <c r="E3">
-        <v>1.524584185448816</v>
+        <v>1.690430023294529</v>
       </c>
       <c r="F3">
-        <v>1.5234647779273</v>
+        <v>1.711405481256953</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07282520553819657</v>
+        <v>0.2438441126156719</v>
       </c>
       <c r="C4">
-        <v>0.8920146246384424</v>
+        <v>1.021400937554764</v>
       </c>
       <c r="D4">
-        <v>2.369955897058822</v>
+        <v>2.863247739468819</v>
       </c>
       <c r="E4">
-        <v>1.539466107798032</v>
+        <v>1.692113394388455</v>
       </c>
       <c r="F4">
-        <v>1.553678209244919</v>
+        <v>1.695782940939382</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2280708590847791</v>
+        <v>0.05021881217214593</v>
       </c>
       <c r="C5">
-        <v>0.9180197143133344</v>
+        <v>1.021229807756068</v>
       </c>
       <c r="D5">
-        <v>2.436291467276783</v>
+        <v>2.921706329422886</v>
       </c>
       <c r="E5">
-        <v>1.5608624113857</v>
+        <v>1.709299953028399</v>
       </c>
       <c r="F5">
-        <v>1.560450066177918</v>
+        <v>1.730897178471549</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1059889376669026</v>
+        <v>0.2407774045323826</v>
       </c>
       <c r="C6">
-        <v>0.8775097619739644</v>
+        <v>1.05914724455951</v>
       </c>
       <c r="D6">
-        <v>2.394266195833348</v>
+        <v>3.019659849071489</v>
       </c>
       <c r="E6">
-        <v>1.547341654526675</v>
+        <v>1.737716849510152</v>
       </c>
       <c r="F6">
-        <v>1.560396615019112</v>
+        <v>1.744056094439822</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2424232887606824</v>
+        <v>0.08256934594935905</v>
       </c>
       <c r="C7">
-        <v>0.8995544753595199</v>
+        <v>1.017230331921043</v>
       </c>
       <c r="D7">
-        <v>2.464361956921573</v>
+        <v>2.994009761198107</v>
       </c>
       <c r="E7">
-        <v>1.569828639349395</v>
+        <v>1.730320710503723</v>
       </c>
       <c r="F7">
-        <v>1.56813600370666</v>
+        <v>1.752189950219291</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08228634011495191</v>
+        <v>0.2581920007548112</v>
       </c>
       <c r="C8">
-        <v>0.8063847497337052</v>
+        <v>1.070846802007395</v>
       </c>
       <c r="D8">
-        <v>2.322743373247686</v>
+        <v>3.103390552560661</v>
       </c>
       <c r="E8">
-        <v>1.524054911493574</v>
+        <v>1.761644275261229</v>
       </c>
       <c r="F8">
-        <v>1.539028286382188</v>
+        <v>1.767340115694834</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2065927448523342</v>
+        <v>0.05684027587393566</v>
       </c>
       <c r="C9">
-        <v>0.8408213022771569</v>
+        <v>0.9604249871766081</v>
       </c>
       <c r="D9">
-        <v>2.429435650446118</v>
+        <v>2.945262510222375</v>
       </c>
       <c r="E9">
-        <v>1.558664701097102</v>
+        <v>1.71617671299385</v>
       </c>
       <c r="F9">
-        <v>1.562773502624323</v>
+        <v>1.740276425508428</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1150341483697026</v>
+        <v>0.2309292503718555</v>
       </c>
       <c r="C10">
-        <v>0.7847972820185366</v>
+        <v>1.011888791862958</v>
       </c>
       <c r="D10">
-        <v>2.399366321466991</v>
+        <v>3.109978691686091</v>
       </c>
       <c r="E10">
-        <v>1.548988806114167</v>
+        <v>1.763513167426342</v>
       </c>
       <c r="F10">
-        <v>1.562992696000677</v>
+        <v>1.774619999292197</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.124196579601926</v>
+        <v>0.1436658260302781</v>
       </c>
       <c r="C11">
-        <v>0.8001464258099134</v>
+        <v>0.9494617496012048</v>
       </c>
       <c r="D11">
-        <v>2.371409906460054</v>
+        <v>3.096262616726478</v>
       </c>
       <c r="E11">
-        <v>1.539938280081398</v>
+        <v>1.759620020551732</v>
       </c>
       <c r="F11">
-        <v>1.553527652694611</v>
+        <v>1.780936820329735</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2609752687857849</v>
+        <v>0.1239850077872064</v>
       </c>
       <c r="C2">
-        <v>0.9909744767902922</v>
+        <v>0.9587971593447111</v>
       </c>
       <c r="D2">
-        <v>2.68705854512723</v>
+        <v>2.504666468680252</v>
       </c>
       <c r="E2">
-        <v>1.639224983071949</v>
+        <v>1.582613809076697</v>
       </c>
       <c r="F2">
-        <v>1.637933849261315</v>
+        <v>1.593449111284933</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.009041043032269717</v>
+        <v>-0.07634650817340942</v>
       </c>
       <c r="C3">
-        <v>1.032344038245651</v>
+        <v>0.9644256602613136</v>
       </c>
       <c r="D3">
-        <v>2.857553663655543</v>
+        <v>2.465022428948611</v>
       </c>
       <c r="E3">
-        <v>1.690430023294529</v>
+        <v>1.570038989626885</v>
       </c>
       <c r="F3">
-        <v>1.711405481256953</v>
+        <v>1.584102668685676</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2438441126156719</v>
+        <v>0.1308097497450276</v>
       </c>
       <c r="C4">
-        <v>1.021400937554764</v>
+        <v>0.9583096004403104</v>
       </c>
       <c r="D4">
-        <v>2.863247739468819</v>
+        <v>2.464810574400857</v>
       </c>
       <c r="E4">
-        <v>1.692113394388455</v>
+        <v>1.569971520251516</v>
       </c>
       <c r="F4">
-        <v>1.695782940939382</v>
+        <v>1.580725504613128</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05021881217214593</v>
+        <v>-0.02424481833496826</v>
       </c>
       <c r="C5">
-        <v>1.021229807756068</v>
+        <v>0.9746006404459205</v>
       </c>
       <c r="D5">
-        <v>2.921706329422886</v>
+        <v>2.576612619674879</v>
       </c>
       <c r="E5">
-        <v>1.709299953028399</v>
+        <v>1.605183048650489</v>
       </c>
       <c r="F5">
-        <v>1.730897178471549</v>
+        <v>1.621984539672506</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2407774045323826</v>
+        <v>0.1313683227808764</v>
       </c>
       <c r="C6">
-        <v>1.05914724455951</v>
+        <v>1.001393086257909</v>
       </c>
       <c r="D6">
-        <v>3.019659849071489</v>
+        <v>2.609607854279241</v>
       </c>
       <c r="E6">
-        <v>1.737716849510152</v>
+        <v>1.615428071527557</v>
       </c>
       <c r="F6">
-        <v>1.744056094439822</v>
+        <v>1.627484456937081</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.08256934594935905</v>
+        <v>0.003180273963439154</v>
       </c>
       <c r="C7">
-        <v>1.017230331921043</v>
+        <v>0.9469229433371078</v>
       </c>
       <c r="D7">
-        <v>2.994009761198107</v>
+        <v>2.518249158100375</v>
       </c>
       <c r="E7">
-        <v>1.730320710503723</v>
+        <v>1.586899227455977</v>
       </c>
       <c r="F7">
-        <v>1.752189950219291</v>
+        <v>1.604431335894871</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2581920007548112</v>
+        <v>0.1362810442212024</v>
       </c>
       <c r="C8">
-        <v>1.070846802007395</v>
+        <v>0.9540930716873162</v>
       </c>
       <c r="D8">
-        <v>3.103390552560661</v>
+        <v>2.589108079185797</v>
       </c>
       <c r="E8">
-        <v>1.761644275261229</v>
+        <v>1.60907056376835</v>
       </c>
       <c r="F8">
-        <v>1.767340115694834</v>
+        <v>1.621405815584749</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05684027587393566</v>
+        <v>-0.04071899536153733</v>
       </c>
       <c r="C9">
-        <v>0.9604249871766081</v>
+        <v>0.8760439952630932</v>
       </c>
       <c r="D9">
-        <v>2.945262510222375</v>
+        <v>2.432158382960957</v>
       </c>
       <c r="E9">
-        <v>1.71617671299385</v>
+        <v>1.559537874808097</v>
       </c>
       <c r="F9">
-        <v>1.740276425508428</v>
+        <v>1.577029996622433</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2309292503718555</v>
+        <v>0.07889961332241763</v>
       </c>
       <c r="C10">
-        <v>1.011888791862958</v>
+        <v>0.9613424106959066</v>
       </c>
       <c r="D10">
-        <v>3.109978691686091</v>
+        <v>2.595247230407774</v>
       </c>
       <c r="E10">
-        <v>1.763513167426342</v>
+        <v>1.610977104246915</v>
       </c>
       <c r="F10">
-        <v>1.774619999292197</v>
+        <v>1.628086442519692</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1436658260302781</v>
+        <v>-0.01422600529044099</v>
       </c>
       <c r="C11">
-        <v>0.9494617496012048</v>
+        <v>0.8653212001480697</v>
       </c>
       <c r="D11">
-        <v>3.096262616726478</v>
+        <v>2.498623644143271</v>
       </c>
       <c r="E11">
-        <v>1.759620020551732</v>
+        <v>1.580703528225097</v>
       </c>
       <c r="F11">
-        <v>1.780936820329735</v>
+        <v>1.599799477728101</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.003180273963439154</v>
+        <v>0.04537116952229212</v>
       </c>
       <c r="C7">
-        <v>0.9469229433371078</v>
+        <v>0.9472648544446646</v>
       </c>
       <c r="D7">
-        <v>2.518249158100375</v>
+        <v>2.781695858718539</v>
       </c>
       <c r="E7">
-        <v>1.586899227455977</v>
+        <v>1.667841676754283</v>
       </c>
       <c r="F7">
-        <v>1.604431335894871</v>
+        <v>1.689604287563018</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1362810442212024</v>
+        <v>0.1157334130921949</v>
       </c>
       <c r="C8">
-        <v>0.9540930716873162</v>
+        <v>1.016311866239339</v>
       </c>
       <c r="D8">
-        <v>2.589108079185797</v>
+        <v>2.967633790164031</v>
       </c>
       <c r="E8">
-        <v>1.60907056376835</v>
+        <v>1.722682150068326</v>
       </c>
       <c r="F8">
-        <v>1.621405815584749</v>
+        <v>1.742498716630711</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04071899536153733</v>
+        <v>-0.02432183078563367</v>
       </c>
       <c r="C9">
-        <v>0.8760439952630932</v>
+        <v>1.165694726323169</v>
       </c>
       <c r="D9">
-        <v>2.432158382960957</v>
+        <v>4.494950312546154</v>
       </c>
       <c r="E9">
-        <v>1.559537874808097</v>
+        <v>2.120129786722066</v>
       </c>
       <c r="F9">
-        <v>1.577029996622433</v>
+        <v>2.17506412757088</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07889961332241763</v>
+        <v>-0.4137243084650019</v>
       </c>
       <c r="C10">
-        <v>0.9613424106959066</v>
+        <v>0.9127267147502702</v>
       </c>
       <c r="D10">
-        <v>2.595247230407774</v>
+        <v>1.863584276199294</v>
       </c>
       <c r="E10">
-        <v>1.610977104246915</v>
+        <v>1.365131596659932</v>
       </c>
       <c r="F10">
-        <v>1.628086442519692</v>
+        <v>1.354049917414355</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.01422600529044099</v>
+        <v>0.1972777442226493</v>
       </c>
       <c r="C11">
-        <v>0.8653212001480697</v>
+        <v>0.547588270575837</v>
       </c>
       <c r="D11">
-        <v>2.498623644143271</v>
+        <v>0.4683298695408837</v>
       </c>
       <c r="E11">
-        <v>1.580703528225097</v>
+        <v>0.6843463081955536</v>
       </c>
       <c r="F11">
-        <v>1.599799477728101</v>
+        <v>0.7326419326445446</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
